--- a/exports/L102-tok-result-csv.xlsx
+++ b/exports/L102-tok-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD848E-FED7-5C43-823D-7FB2F7601B92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A95CEB-5FEC-324B-9DA0-0F8BC5FF9649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2540" windowWidth="27640" windowHeight="17040" xr2:uid="{37F5CF72-3574-2B47-AC3D-BF1DD05DE258}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="22680" windowHeight="14160" xr2:uid="{37F5CF72-3574-2B47-AC3D-BF1DD05DE258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2158,25 +2158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2196,12 +2184,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2523,15 +2526,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC5469-13FE-CD44-AE32-91B4DB5F06D9}">
   <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288:XFD288"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A99" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
@@ -2544,55 +2547,55 @@
     <col min="13" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -2611,29 +2614,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:16" s="4" customFormat="1">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>175</v>
       </c>
       <c r="E4" t="s">
@@ -2652,26 +2655,26 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:16" s="11" customFormat="1">
+      <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>178</v>
       </c>
       <c r="E6" t="s">
@@ -2687,50 +2690,50 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:16" s="11" customFormat="1">
+      <c r="A7" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:16" s="11" customFormat="1">
+      <c r="A8" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="12"/>
+      <c r="E8" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>184</v>
       </c>
       <c r="E9" t="s">
@@ -2750,7 +2753,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>184</v>
       </c>
       <c r="E10" t="s">
@@ -2776,7 +2779,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
         <v>184</v>
       </c>
       <c r="E11" t="s">
@@ -2795,29 +2798,29 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="16" customFormat="1">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:16" s="11" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="12"/>
+      <c r="E12" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E13" t="s">
@@ -2837,7 +2840,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E14" t="s">
@@ -2857,7 +2860,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>200</v>
       </c>
       <c r="E15" t="s">
@@ -2877,37 +2880,37 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E17" t="s">
@@ -2927,7 +2930,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="14" t="s">
         <v>223</v>
       </c>
       <c r="E18" t="s">
@@ -2947,7 +2950,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>235</v>
       </c>
       <c r="E19" t="s">
@@ -2967,7 +2970,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="14" t="s">
         <v>235</v>
       </c>
       <c r="E20" t="s">
@@ -2987,7 +2990,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="14" t="s">
         <v>235</v>
       </c>
       <c r="E21" t="s">
@@ -3007,7 +3010,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="14" t="s">
         <v>232</v>
       </c>
       <c r="E22" t="s">
@@ -3027,7 +3030,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="14" t="s">
         <v>232</v>
       </c>
       <c r="E23" t="s">
@@ -3053,7 +3056,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="14" t="s">
         <v>226</v>
       </c>
       <c r="E24" t="s">
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="14" t="s">
         <v>226</v>
       </c>
       <c r="E25" t="s">
@@ -3093,7 +3096,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>226</v>
       </c>
       <c r="E26" t="s">
@@ -3113,7 +3116,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="14" t="s">
         <v>238</v>
       </c>
       <c r="E27" t="s">
@@ -3133,7 +3136,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="14" t="s">
         <v>238</v>
       </c>
       <c r="E28" t="s">
@@ -3153,7 +3156,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="14" t="s">
         <v>241</v>
       </c>
       <c r="E29" t="s">
@@ -3182,7 +3185,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="14" t="s">
         <v>203</v>
       </c>
       <c r="E30" t="s">
@@ -3208,7 +3211,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>203</v>
       </c>
       <c r="E31" t="s">
@@ -3234,7 +3237,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E32" t="s">
@@ -3256,29 +3259,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="16" customFormat="1">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:16" s="11" customFormat="1">
+      <c r="A33" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="12"/>
+      <c r="E33" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="O33" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E34" t="s">
@@ -3301,7 +3304,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E35" t="s">
@@ -3321,7 +3324,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E36" t="s">
@@ -3344,7 +3347,7 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E37" t="s">
@@ -3364,7 +3367,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>253</v>
       </c>
       <c r="E38" t="s">
@@ -3383,12 +3386,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:16" s="2" customFormat="1">
+      <c r="A39" s="14" t="s">
         <v>253</v>
       </c>
       <c r="B39"/>
-      <c r="C39" s="10"/>
+      <c r="C39" s="6"/>
       <c r="D39"/>
       <c r="E39" t="s">
         <v>254</v>
@@ -3414,7 +3417,7 @@
       <c r="P39"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="14" t="s">
         <v>256</v>
       </c>
       <c r="E40" t="s">
@@ -3434,7 +3437,7 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="14" t="s">
         <v>262</v>
       </c>
       <c r="E41" t="s">
@@ -3454,7 +3457,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="14" t="s">
         <v>262</v>
       </c>
       <c r="E42" t="s">
@@ -3474,7 +3477,7 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="14" t="s">
         <v>262</v>
       </c>
       <c r="E43" t="s">
@@ -3494,7 +3497,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="14" t="s">
         <v>262</v>
       </c>
       <c r="E44" t="s">
@@ -3514,7 +3517,7 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="14" t="s">
         <v>267</v>
       </c>
       <c r="E45" t="s">
@@ -3534,7 +3537,7 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="14" t="s">
         <v>267</v>
       </c>
       <c r="E46" t="s">
@@ -3553,29 +3556,29 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="16" customFormat="1">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:16" s="11" customFormat="1">
+      <c r="A47" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="E47" s="16" t="s">
+      <c r="C47" s="12"/>
+      <c r="E47" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="16" t="s">
+      <c r="N47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="16" t="s">
+      <c r="O47" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="14" t="s">
         <v>278</v>
       </c>
       <c r="E48" t="s">
@@ -3595,7 +3598,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="14" t="s">
         <v>278</v>
       </c>
       <c r="E49" t="s">
@@ -3615,7 +3618,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="14" t="s">
         <v>282</v>
       </c>
       <c r="E50" t="s">
@@ -3635,7 +3638,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="14" t="s">
         <v>282</v>
       </c>
       <c r="E51" t="s">
@@ -3655,7 +3658,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="14" t="s">
         <v>282</v>
       </c>
       <c r="E52" t="s">
@@ -3674,50 +3677,50 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="16" customFormat="1">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:15" s="11" customFormat="1">
+      <c r="A53" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="12"/>
+      <c r="E53" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="O53" s="16" t="s">
+      <c r="O53" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="16" customFormat="1">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:15" s="11" customFormat="1">
+      <c r="A54" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="E54" s="16" t="s">
+      <c r="C54" s="12"/>
+      <c r="E54" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M54" s="16" t="s">
+      <c r="M54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N54" s="16" t="s">
+      <c r="N54" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O54" s="16" t="s">
+      <c r="O54" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="14" t="s">
         <v>294</v>
       </c>
       <c r="E55" t="s">
@@ -3736,23 +3739,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="16" customFormat="1">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:15" s="11" customFormat="1">
+      <c r="A56" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="E56" s="16" t="s">
+      <c r="C56" s="12"/>
+      <c r="E56" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M56" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="14" t="s">
         <v>325</v>
       </c>
       <c r="E57" t="s">
@@ -3772,7 +3775,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="14" t="s">
         <v>647</v>
       </c>
       <c r="E58" t="s">
@@ -3792,10 +3795,10 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="9"/>
       <c r="E59" t="s">
         <v>18</v>
       </c>
@@ -3813,7 +3816,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E60" t="s">
@@ -3833,7 +3836,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E61" t="s">
@@ -3853,7 +3856,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E62" t="s">
@@ -3873,7 +3876,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E63" t="s">
@@ -3893,7 +3896,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E64" t="s">
@@ -3913,7 +3916,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E65" t="s">
@@ -3933,7 +3936,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E66" t="s">
@@ -3953,7 +3956,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="14" t="s">
         <v>331</v>
       </c>
       <c r="E67" t="s">
@@ -3976,39 +3979,39 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P68" s="4"/>
+      <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="14" t="s">
         <v>331</v>
       </c>
       <c r="E69" t="s">
@@ -4031,7 +4034,7 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="14" t="s">
         <v>335</v>
       </c>
       <c r="E70" t="s">
@@ -4051,7 +4054,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="14" t="s">
         <v>335</v>
       </c>
       <c r="E71" t="s">
@@ -4071,7 +4074,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E72" t="s">
@@ -4091,7 +4094,7 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="14" t="s">
         <v>297</v>
       </c>
       <c r="E73" t="s">
@@ -4111,7 +4114,7 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="14" t="s">
         <v>297</v>
       </c>
       <c r="E74" t="s">
@@ -4131,7 +4134,7 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E75" t="s">
@@ -4145,7 +4148,7 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="14" t="s">
         <v>336</v>
       </c>
       <c r="E76" t="s">
@@ -4165,7 +4168,7 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="14" t="s">
         <v>563</v>
       </c>
       <c r="E77" t="s">
@@ -4191,37 +4194,37 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O78" s="4" t="s">
+      <c r="O78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P78" s="4"/>
+      <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="14" t="s">
         <v>342</v>
       </c>
       <c r="E79" t="s">
@@ -4241,7 +4244,7 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="14" t="s">
         <v>342</v>
       </c>
       <c r="E80" t="s">
@@ -4267,7 +4270,7 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="14" t="s">
         <v>342</v>
       </c>
       <c r="E81" t="s">
@@ -4287,7 +4290,7 @@
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="14" t="s">
         <v>342</v>
       </c>
       <c r="E82" t="s">
@@ -4313,7 +4316,7 @@
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="14" t="s">
         <v>342</v>
       </c>
       <c r="E83" t="s">
@@ -4339,7 +4342,7 @@
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="14" t="s">
         <v>648</v>
       </c>
       <c r="E84" t="s">
@@ -4362,7 +4365,7 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E85" t="s">
@@ -4385,7 +4388,7 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E86" t="s">
@@ -4408,7 +4411,7 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E87" t="s">
@@ -4428,7 +4431,7 @@
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E88" t="s">
@@ -4451,7 +4454,7 @@
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E89" t="s">
@@ -4473,12 +4476,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="4" customFormat="1">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:16" s="2" customFormat="1">
+      <c r="A90" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B90"/>
-      <c r="C90" s="10"/>
+      <c r="C90" s="6"/>
       <c r="D90"/>
       <c r="E90" t="s">
         <v>352</v>
@@ -4504,7 +4507,7 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="14" t="s">
         <v>354</v>
       </c>
       <c r="E91" t="s">
@@ -4523,50 +4526,50 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="4" customFormat="1">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:16" s="2" customFormat="1">
+      <c r="A92" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="E92" s="4" t="s">
+      <c r="C92" s="8"/>
+      <c r="E92" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="M92" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="O92" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="4" customFormat="1">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:16" s="2" customFormat="1">
+      <c r="A93" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="E93" s="4" t="s">
+      <c r="C93" s="8"/>
+      <c r="E93" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="M93" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="14" t="s">
         <v>357</v>
       </c>
       <c r="E94" t="s">
@@ -4586,7 +4589,7 @@
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="14" t="s">
         <v>362</v>
       </c>
       <c r="E95" t="s">
@@ -4606,7 +4609,7 @@
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="14" t="s">
         <v>362</v>
       </c>
       <c r="E96" t="s">
@@ -4626,7 +4629,7 @@
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="14" t="s">
         <v>362</v>
       </c>
       <c r="E97" t="s">
@@ -4645,56 +4648,56 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="4" customFormat="1">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:16" s="2" customFormat="1">
+      <c r="A98" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="E98" s="4" t="s">
+      <c r="C98" s="8"/>
+      <c r="E98" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="M98" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N98" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O98" s="4" t="s">
+      <c r="O98" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="4" customFormat="1">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:16" s="2" customFormat="1">
+      <c r="A99" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="E99" s="4" t="s">
+      <c r="C99" s="8"/>
+      <c r="E99" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="M99" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="N99" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O99" s="4" t="s">
+      <c r="O99" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="14" t="s">
         <v>375</v>
       </c>
       <c r="E100" t="s">
@@ -4714,7 +4717,7 @@
       </c>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="14" t="s">
         <v>375</v>
       </c>
       <c r="E101" t="s">
@@ -4734,7 +4737,7 @@
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E102" t="s">
@@ -4754,7 +4757,7 @@
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E103" t="s">
@@ -4774,7 +4777,7 @@
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E104" t="s">
@@ -4794,7 +4797,7 @@
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E105" t="s">
@@ -4813,31 +4816,31 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="4" customFormat="1" ht="34">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:16" s="2" customFormat="1" ht="34">
+      <c r="A106" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="M106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="N106" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O106" s="4" t="s">
+      <c r="O106" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="14" t="s">
         <v>397</v>
       </c>
       <c r="E107" t="s">
@@ -4857,37 +4860,37 @@
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
+      <c r="B108" s="2"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4" t="s">
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4" t="s">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="N108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O108" s="4" t="s">
+      <c r="O108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P108" s="4"/>
+      <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="14" t="s">
         <v>634</v>
       </c>
       <c r="E109" t="s">
@@ -4907,7 +4910,7 @@
       </c>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="14" t="s">
         <v>634</v>
       </c>
       <c r="E110" t="s">
@@ -4927,7 +4930,7 @@
       </c>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="14" t="s">
         <v>273</v>
       </c>
       <c r="E111" t="s">
@@ -4953,7 +4956,7 @@
       </c>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="14" t="s">
         <v>273</v>
       </c>
       <c r="E112" t="s">
@@ -4973,7 +4976,7 @@
       </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="14" t="s">
         <v>285</v>
       </c>
       <c r="E113" t="s">
@@ -4999,7 +5002,7 @@
       </c>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="14" t="s">
         <v>285</v>
       </c>
       <c r="E114" t="s">
@@ -5019,7 +5022,7 @@
       </c>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E115" t="s">
@@ -5039,7 +5042,7 @@
       </c>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E116" t="s">
@@ -5059,7 +5062,7 @@
       </c>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="14" t="s">
         <v>403</v>
       </c>
       <c r="E117" t="s">
@@ -5078,56 +5081,56 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="16" customFormat="1">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:15" s="11" customFormat="1">
+      <c r="A118" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="E118" s="16" t="s">
+      <c r="C118" s="12"/>
+      <c r="E118" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="F118" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I118" s="16" t="s">
+      <c r="I118" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M118" s="16" t="s">
+      <c r="M118" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N118" s="16" t="s">
+      <c r="N118" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O118" s="16" t="s">
+      <c r="O118" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="16" customFormat="1">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:15" s="11" customFormat="1">
+      <c r="A119" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="E119" s="16" t="s">
+      <c r="C119" s="12"/>
+      <c r="E119" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="M119" s="16" t="s">
+      <c r="M119" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="N119" s="16" t="s">
+      <c r="N119" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="O119" s="16" t="s">
+      <c r="O119" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="14" t="s">
         <v>413</v>
       </c>
       <c r="E120" t="s">
@@ -5146,74 +5149,74 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="16" customFormat="1">
-      <c r="A121" s="15" t="s">
+    <row r="121" spans="1:15" s="11" customFormat="1">
+      <c r="A121" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="E121" s="16" t="s">
+      <c r="C121" s="12"/>
+      <c r="E121" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="M121" s="16" t="s">
+      <c r="M121" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N121" s="16" t="s">
+      <c r="N121" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O121" s="16" t="s">
+      <c r="O121" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="16" customFormat="1">
-      <c r="A122" s="15" t="s">
+    <row r="122" spans="1:15" s="11" customFormat="1">
+      <c r="A122" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="E122" s="16" t="s">
+      <c r="C122" s="12"/>
+      <c r="E122" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="F122" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H122" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M122" s="16" t="s">
+      <c r="M122" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N122" s="16" t="s">
+      <c r="N122" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O122" s="16" t="s">
+      <c r="O122" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="16" customFormat="1">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:15" s="11" customFormat="1">
+      <c r="A123" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="E123" s="16" t="s">
+      <c r="C123" s="12"/>
+      <c r="E123" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M123" s="16" t="s">
+      <c r="M123" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N123" s="16" t="s">
+      <c r="N123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O123" s="16" t="s">
+      <c r="O123" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="14" t="s">
         <v>650</v>
       </c>
       <c r="E124" t="s">
@@ -5232,29 +5235,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="16" customFormat="1">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:15" s="11" customFormat="1">
+      <c r="A125" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="E125" s="16" t="s">
+      <c r="C125" s="12"/>
+      <c r="E125" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="H125" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M125" s="16" t="s">
+      <c r="M125" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N125" s="16" t="s">
+      <c r="N125" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O125" s="16" t="s">
+      <c r="O125" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="14" t="s">
         <v>651</v>
       </c>
       <c r="E126" t="s">
@@ -5274,7 +5277,7 @@
       </c>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="14" t="s">
         <v>83</v>
       </c>
       <c r="E127" t="s">
@@ -5293,29 +5296,29 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="16" customFormat="1">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:15" s="11" customFormat="1">
+      <c r="A128" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="E128" s="16" t="s">
+      <c r="C128" s="12"/>
+      <c r="E128" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="H128" s="16" t="s">
+      <c r="H128" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="M128" s="16" t="s">
+      <c r="M128" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N128" s="16" t="s">
+      <c r="N128" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O128" s="16" t="s">
+      <c r="O128" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="14" t="s">
         <v>419</v>
       </c>
       <c r="E129" t="s">
@@ -5335,7 +5338,7 @@
       </c>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E130" t="s">
@@ -5355,7 +5358,7 @@
       </c>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="14" t="s">
         <v>425</v>
       </c>
       <c r="E131" t="s">
@@ -5375,7 +5378,7 @@
       </c>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="14" t="s">
         <v>425</v>
       </c>
       <c r="E132" t="s">
@@ -5395,7 +5398,7 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="14" t="s">
         <v>425</v>
       </c>
       <c r="E133" t="s">
@@ -5415,7 +5418,7 @@
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="14" t="s">
         <v>425</v>
       </c>
       <c r="E134" t="s">
@@ -5434,29 +5437,29 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="16" customFormat="1">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:16" s="11" customFormat="1">
+      <c r="A135" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="E135" s="16" t="s">
+      <c r="C135" s="12"/>
+      <c r="E135" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="H135" s="16" t="s">
+      <c r="H135" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M135" s="16" t="s">
+      <c r="M135" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="N135" s="16" t="s">
+      <c r="N135" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="O135" s="16" t="s">
+      <c r="O135" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="14" t="s">
         <v>214</v>
       </c>
       <c r="E136" t="s">
@@ -5476,7 +5479,7 @@
       </c>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="14" t="s">
         <v>214</v>
       </c>
       <c r="E137" t="s">
@@ -5496,7 +5499,7 @@
       </c>
     </row>
     <row r="138" spans="1:16">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="14" t="s">
         <v>214</v>
       </c>
       <c r="E138" t="s">
@@ -5516,7 +5519,7 @@
       </c>
     </row>
     <row r="139" spans="1:16">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="14" t="s">
         <v>431</v>
       </c>
       <c r="E139" t="s">
@@ -5536,7 +5539,7 @@
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E140" t="s">
@@ -5556,7 +5559,7 @@
       </c>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E141" t="s">
@@ -5573,7 +5576,7 @@
       </c>
     </row>
     <row r="142" spans="1:16">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E142" t="s">
@@ -5593,7 +5596,7 @@
       </c>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E143" t="s">
@@ -5613,35 +5616,35 @@
       </c>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4" t="s">
+      <c r="B144" s="2"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4" t="s">
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4" t="s">
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N144" s="4" t="s">
+      <c r="N144" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="14" t="s">
         <v>433</v>
       </c>
       <c r="E145" t="s">
@@ -5661,7 +5664,7 @@
       </c>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="14" t="s">
         <v>652</v>
       </c>
       <c r="E146" t="s">
@@ -5681,7 +5684,7 @@
       </c>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="14" t="s">
         <v>652</v>
       </c>
       <c r="E147" t="s">
@@ -5701,7 +5704,7 @@
       </c>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="14" t="s">
         <v>436</v>
       </c>
       <c r="E148" t="s">
@@ -5718,7 +5721,7 @@
       </c>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="14" t="s">
         <v>438</v>
       </c>
       <c r="E149" t="s">
@@ -5737,29 +5740,29 @@
         <v>231</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="16" customFormat="1">
-      <c r="A150" s="15" t="s">
+    <row r="150" spans="1:15" s="11" customFormat="1">
+      <c r="A150" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="E150" s="16" t="s">
+      <c r="C150" s="12"/>
+      <c r="E150" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="H150" s="16" t="s">
+      <c r="H150" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="M150" s="16" t="s">
+      <c r="M150" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N150" s="16" t="s">
+      <c r="N150" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O150" s="16" t="s">
+      <c r="O150" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="14" t="s">
         <v>439</v>
       </c>
       <c r="E151" t="s">
@@ -5779,7 +5782,7 @@
       </c>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="14" t="s">
         <v>442</v>
       </c>
       <c r="E152" t="s">
@@ -5799,7 +5802,7 @@
       </c>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="14" t="s">
         <v>442</v>
       </c>
       <c r="E153" t="s">
@@ -5819,7 +5822,7 @@
       </c>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="14" t="s">
         <v>450</v>
       </c>
       <c r="E154" t="s">
@@ -5839,7 +5842,7 @@
       </c>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="14" t="s">
         <v>448</v>
       </c>
       <c r="E155" t="s">
@@ -5859,7 +5862,7 @@
       </c>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="14" t="s">
         <v>448</v>
       </c>
       <c r="E156" t="s">
@@ -5878,50 +5881,50 @@
         <v>261</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="16" customFormat="1">
-      <c r="A157" s="15" t="s">
+    <row r="157" spans="1:15" s="11" customFormat="1">
+      <c r="A157" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="E157" s="16" t="s">
+      <c r="C157" s="12"/>
+      <c r="E157" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="H157" s="16" t="s">
+      <c r="H157" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M157" s="16" t="s">
+      <c r="M157" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N157" s="16" t="s">
+      <c r="N157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O157" s="16" t="s">
+      <c r="O157" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="16" customFormat="1">
-      <c r="A158" s="15" t="s">
+    <row r="158" spans="1:15" s="11" customFormat="1">
+      <c r="A158" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C158" s="17"/>
-      <c r="E158" s="16" t="s">
+      <c r="C158" s="12"/>
+      <c r="E158" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="H158" s="16" t="s">
+      <c r="H158" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M158" s="16" t="s">
+      <c r="M158" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N158" s="16" t="s">
+      <c r="N158" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O158" s="16" t="s">
+      <c r="O158" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="14" t="s">
         <v>454</v>
       </c>
       <c r="E159" t="s">
@@ -5941,7 +5944,7 @@
       </c>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="14" t="s">
         <v>454</v>
       </c>
       <c r="E160" t="s">
@@ -5960,29 +5963,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="16" customFormat="1">
-      <c r="A161" s="15" t="s">
+    <row r="161" spans="1:16" s="11" customFormat="1">
+      <c r="A161" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="E161" s="16" t="s">
+      <c r="C161" s="12"/>
+      <c r="E161" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="H161" s="16" t="s">
+      <c r="H161" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="M161" s="16" t="s">
+      <c r="M161" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N161" s="16" t="s">
+      <c r="N161" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O161" s="16" t="s">
+      <c r="O161" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:16">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="14" t="s">
         <v>455</v>
       </c>
       <c r="E162" t="s">
@@ -6002,7 +6005,7 @@
       </c>
     </row>
     <row r="163" spans="1:16">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="14" t="s">
         <v>653</v>
       </c>
       <c r="E163" t="s">
@@ -6022,7 +6025,7 @@
       </c>
     </row>
     <row r="164" spans="1:16">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="14" t="s">
         <v>653</v>
       </c>
       <c r="E164" t="s">
@@ -6041,29 +6044,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="16" customFormat="1">
-      <c r="A165" s="15" t="s">
+    <row r="165" spans="1:16" s="11" customFormat="1">
+      <c r="A165" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C165" s="17"/>
-      <c r="E165" s="16" t="s">
+      <c r="C165" s="12"/>
+      <c r="E165" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="H165" s="16" t="s">
+      <c r="H165" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="M165" s="16" t="s">
+      <c r="M165" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N165" s="16" t="s">
+      <c r="N165" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O165" s="16" t="s">
+      <c r="O165" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:16">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="14" t="s">
         <v>464</v>
       </c>
       <c r="E166" t="s">
@@ -6083,7 +6086,7 @@
       </c>
     </row>
     <row r="167" spans="1:16">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="14" t="s">
         <v>464</v>
       </c>
       <c r="E167" t="s">
@@ -6102,29 +6105,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="16" customFormat="1">
-      <c r="A168" s="15" t="s">
+    <row r="168" spans="1:16" s="11" customFormat="1">
+      <c r="A168" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C168" s="17"/>
-      <c r="E168" s="16" t="s">
+      <c r="C168" s="12"/>
+      <c r="E168" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="H168" s="16" t="s">
+      <c r="H168" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="M168" s="16" t="s">
+      <c r="M168" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N168" s="16" t="s">
+      <c r="N168" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="O168" s="16" t="s">
+      <c r="O168" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:16">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="14" t="s">
         <v>467</v>
       </c>
       <c r="E169" t="s">
@@ -6143,33 +6146,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="16" customFormat="1">
-      <c r="A170" s="15" t="s">
+    <row r="170" spans="1:16" s="11" customFormat="1">
+      <c r="A170" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="E170" s="16" t="s">
+      <c r="C170" s="12"/>
+      <c r="E170" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="H170" s="16" t="s">
+      <c r="H170" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="M170" s="16" t="s">
+      <c r="M170" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="N170" s="16" t="s">
+      <c r="N170" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O170" s="16" t="s">
+      <c r="O170" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="6" customFormat="1">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:16" s="3" customFormat="1">
+      <c r="A171" s="14" t="s">
         <v>475</v>
       </c>
       <c r="B171"/>
-      <c r="C171" s="10"/>
+      <c r="C171" s="6"/>
       <c r="D171"/>
       <c r="E171" t="s">
         <v>432</v>
@@ -6195,7 +6198,7 @@
       <c r="P171"/>
     </row>
     <row r="172" spans="1:16">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="14" t="s">
         <v>475</v>
       </c>
       <c r="E172" t="s">
@@ -6214,29 +6217,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="16" customFormat="1">
-      <c r="A173" s="15" t="s">
+    <row r="173" spans="1:16" s="11" customFormat="1">
+      <c r="A173" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="E173" s="16" t="s">
+      <c r="C173" s="12"/>
+      <c r="E173" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H173" s="16" t="s">
+      <c r="H173" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M173" s="16" t="s">
+      <c r="M173" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N173" s="16" t="s">
+      <c r="N173" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O173" s="16" t="s">
+      <c r="O173" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:16">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="14" t="s">
         <v>480</v>
       </c>
       <c r="E174" t="s">
@@ -6256,7 +6259,7 @@
       </c>
     </row>
     <row r="175" spans="1:16">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="14" t="s">
         <v>480</v>
       </c>
       <c r="E175" t="s">
@@ -6276,7 +6279,7 @@
       </c>
     </row>
     <row r="176" spans="1:16">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="14" t="s">
         <v>483</v>
       </c>
       <c r="E176" t="s">
@@ -6305,7 +6308,7 @@
       </c>
     </row>
     <row r="177" spans="1:16">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="14" t="s">
         <v>483</v>
       </c>
       <c r="E177" t="s">
@@ -6336,37 +6339,37 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="16" customFormat="1" ht="34">
-      <c r="A178" s="15" t="s">
+    <row r="178" spans="1:16" s="11" customFormat="1" ht="34">
+      <c r="A178" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C178" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="F178" s="16" t="s">
+      <c r="F178" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="H178" s="16" t="s">
+      <c r="H178" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="I178" s="16" t="s">
+      <c r="I178" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="M178" s="16" t="s">
+      <c r="M178" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="N178" s="16" t="s">
+      <c r="N178" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="O178" s="16" t="s">
+      <c r="O178" s="11" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:16">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="14" t="s">
         <v>551</v>
       </c>
       <c r="E179" t="s">
@@ -6386,7 +6389,7 @@
       </c>
     </row>
     <row r="180" spans="1:16">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="14" t="s">
         <v>654</v>
       </c>
       <c r="E180" t="s">
@@ -6406,7 +6409,7 @@
       </c>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="14" t="s">
         <v>654</v>
       </c>
       <c r="E181" t="s">
@@ -6426,7 +6429,7 @@
       </c>
     </row>
     <row r="182" spans="1:16">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="14" t="s">
         <v>654</v>
       </c>
       <c r="E182" t="s">
@@ -6446,7 +6449,7 @@
       </c>
     </row>
     <row r="183" spans="1:16">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="14" t="s">
         <v>495</v>
       </c>
       <c r="E183" t="s">
@@ -6466,7 +6469,7 @@
       </c>
     </row>
     <row r="184" spans="1:16">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="14" t="s">
         <v>495</v>
       </c>
       <c r="E184" t="s">
@@ -6485,29 +6488,29 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="16" customFormat="1">
-      <c r="A185" s="15" t="s">
+    <row r="185" spans="1:16" s="11" customFormat="1">
+      <c r="A185" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="C185" s="17"/>
-      <c r="E185" s="16" t="s">
+      <c r="C185" s="12"/>
+      <c r="E185" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="H185" s="16" t="s">
+      <c r="H185" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="M185" s="16" t="s">
+      <c r="M185" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N185" s="16" t="s">
+      <c r="N185" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O185" s="16" t="s">
+      <c r="O185" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:16">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="14" t="s">
         <v>641</v>
       </c>
       <c r="E186" t="s">
@@ -6530,7 +6533,7 @@
       </c>
     </row>
     <row r="187" spans="1:16">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="14" t="s">
         <v>501</v>
       </c>
       <c r="E187" t="s">
@@ -6550,7 +6553,7 @@
       </c>
     </row>
     <row r="188" spans="1:16">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="14" t="s">
         <v>379</v>
       </c>
       <c r="E188" t="s">
@@ -6570,7 +6573,7 @@
       </c>
     </row>
     <row r="189" spans="1:16">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="14" t="s">
         <v>379</v>
       </c>
       <c r="E189" t="s">
@@ -6590,7 +6593,7 @@
       </c>
     </row>
     <row r="190" spans="1:16">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="14" t="s">
         <v>379</v>
       </c>
       <c r="E190" t="s">
@@ -6610,37 +6613,37 @@
       </c>
     </row>
     <row r="191" spans="1:16">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4" t="s">
+      <c r="B191" s="2"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4" t="s">
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4" t="s">
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N191" s="4" t="s">
+      <c r="N191" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O191" s="4" t="s">
+      <c r="O191" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P191" s="4"/>
+      <c r="P191" s="2"/>
     </row>
     <row r="192" spans="1:16">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E192" t="s">
@@ -6660,7 +6663,7 @@
       </c>
     </row>
     <row r="193" spans="1:16">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E193" t="s">
@@ -6689,37 +6692,37 @@
       </c>
     </row>
     <row r="194" spans="1:16">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6" t="s">
+      <c r="B194" s="3"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6" t="s">
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="M194" s="6" t="s">
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N194" s="6" t="s">
+      <c r="N194" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O194" s="6" t="s">
+      <c r="O194" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P194" s="6"/>
+      <c r="P194" s="3"/>
     </row>
     <row r="195" spans="1:16">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E195" t="s">
@@ -6739,7 +6742,7 @@
       </c>
     </row>
     <row r="196" spans="1:16">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="14" t="s">
         <v>458</v>
       </c>
       <c r="E196" t="s">
@@ -6756,7 +6759,7 @@
       </c>
     </row>
     <row r="197" spans="1:16">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="14" t="s">
         <v>458</v>
       </c>
       <c r="E197" t="s">
@@ -6773,7 +6776,7 @@
       </c>
     </row>
     <row r="198" spans="1:16">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="14" t="s">
         <v>514</v>
       </c>
       <c r="E198" t="s">
@@ -6793,7 +6796,7 @@
       </c>
     </row>
     <row r="199" spans="1:16">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="14" t="s">
         <v>514</v>
       </c>
       <c r="E199" t="s">
@@ -6813,7 +6816,7 @@
       </c>
     </row>
     <row r="200" spans="1:16">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="14" t="s">
         <v>517</v>
       </c>
       <c r="E200" t="s">
@@ -6833,7 +6836,7 @@
       </c>
     </row>
     <row r="201" spans="1:16">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="14" t="s">
         <v>517</v>
       </c>
       <c r="E201" t="s">
@@ -6856,7 +6859,7 @@
       </c>
     </row>
     <row r="202" spans="1:16">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="14" t="s">
         <v>655</v>
       </c>
       <c r="E202" t="s">
@@ -6876,7 +6879,7 @@
       </c>
     </row>
     <row r="203" spans="1:16">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="14" t="s">
         <v>655</v>
       </c>
       <c r="E203" t="s">
@@ -6896,7 +6899,7 @@
       </c>
     </row>
     <row r="204" spans="1:16">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="14" t="s">
         <v>655</v>
       </c>
       <c r="E204" t="s">
@@ -6916,7 +6919,7 @@
       </c>
     </row>
     <row r="205" spans="1:16">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="14" t="s">
         <v>655</v>
       </c>
       <c r="E205" t="s">
@@ -6936,7 +6939,7 @@
       </c>
     </row>
     <row r="206" spans="1:16">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="14" t="s">
         <v>521</v>
       </c>
       <c r="E206" t="s">
@@ -6950,7 +6953,7 @@
       </c>
     </row>
     <row r="207" spans="1:16">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="14" t="s">
         <v>521</v>
       </c>
       <c r="E207" t="s">
@@ -6964,7 +6967,7 @@
       </c>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="14" t="s">
         <v>529</v>
       </c>
       <c r="E208" t="s">
@@ -6984,7 +6987,7 @@
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="14" t="s">
         <v>529</v>
       </c>
       <c r="E209" t="s">
@@ -7004,7 +7007,7 @@
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="14" t="s">
         <v>529</v>
       </c>
       <c r="E210" t="s">
@@ -7024,7 +7027,7 @@
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="14" t="s">
         <v>529</v>
       </c>
       <c r="E211" t="s">
@@ -7038,7 +7041,7 @@
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="14" t="s">
         <v>386</v>
       </c>
       <c r="E212" t="s">
@@ -7067,7 +7070,7 @@
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="14" t="s">
         <v>386</v>
       </c>
       <c r="E213" t="s">
@@ -7087,7 +7090,7 @@
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="14" t="s">
         <v>386</v>
       </c>
       <c r="E214" t="s">
@@ -7107,7 +7110,7 @@
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="14" t="s">
         <v>386</v>
       </c>
       <c r="E215" t="s">
@@ -7127,7 +7130,7 @@
       </c>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="14" t="s">
         <v>524</v>
       </c>
       <c r="E216" t="s">
@@ -7153,7 +7156,7 @@
       </c>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="14" t="s">
         <v>524</v>
       </c>
       <c r="E217" t="s">
@@ -7179,7 +7182,7 @@
       </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="14" t="s">
         <v>524</v>
       </c>
       <c r="E218" t="s">
@@ -7205,7 +7208,7 @@
       </c>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="14" t="s">
         <v>524</v>
       </c>
       <c r="E219" t="s">
@@ -7231,7 +7234,7 @@
       </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E220" t="s">
@@ -7251,7 +7254,7 @@
       </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E221" t="s">
@@ -7271,7 +7274,7 @@
       </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E222" t="s">
@@ -7288,7 +7291,7 @@
       </c>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E223" t="s">
@@ -7308,7 +7311,7 @@
       </c>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="14" t="s">
         <v>540</v>
       </c>
       <c r="E224" t="s">
@@ -7328,7 +7331,7 @@
       </c>
     </row>
     <row r="225" spans="1:16">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="14" t="s">
         <v>540</v>
       </c>
       <c r="E225" t="s">
@@ -7348,7 +7351,7 @@
       </c>
     </row>
     <row r="226" spans="1:16">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="14" t="s">
         <v>542</v>
       </c>
       <c r="E226" t="s">
@@ -7374,7 +7377,7 @@
       </c>
     </row>
     <row r="227" spans="1:16">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="14" t="s">
         <v>211</v>
       </c>
       <c r="E227" t="s">
@@ -7393,12 +7396,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="4" customFormat="1">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="1:16" s="2" customFormat="1">
+      <c r="A228" s="14" t="s">
         <v>548</v>
       </c>
       <c r="B228"/>
-      <c r="C228" s="10"/>
+      <c r="C228" s="6"/>
       <c r="D228"/>
       <c r="E228" t="s">
         <v>549</v>
@@ -7424,7 +7427,7 @@
       <c r="P228"/>
     </row>
     <row r="229" spans="1:16">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="14" t="s">
         <v>545</v>
       </c>
       <c r="E229" t="s">
@@ -7444,7 +7447,7 @@
       </c>
     </row>
     <row r="230" spans="1:16">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="14" t="s">
         <v>545</v>
       </c>
       <c r="E230" t="s">
@@ -7464,7 +7467,7 @@
       </c>
     </row>
     <row r="231" spans="1:16">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="14" t="s">
         <v>545</v>
       </c>
       <c r="E231" t="s">
@@ -7484,7 +7487,7 @@
       </c>
     </row>
     <row r="232" spans="1:16">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="14" t="s">
         <v>545</v>
       </c>
       <c r="E232" t="s">
@@ -7504,7 +7507,7 @@
       </c>
     </row>
     <row r="233" spans="1:16">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="14" t="s">
         <v>558</v>
       </c>
       <c r="E233" t="s">
@@ -7524,7 +7527,7 @@
       </c>
     </row>
     <row r="234" spans="1:16">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E234" t="s">
@@ -7544,7 +7547,7 @@
       </c>
     </row>
     <row r="235" spans="1:16">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="14" t="s">
         <v>303</v>
       </c>
       <c r="E235" t="s">
@@ -7564,7 +7567,7 @@
       </c>
     </row>
     <row r="236" spans="1:16">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="14" t="s">
         <v>303</v>
       </c>
       <c r="E236" t="s">
@@ -7584,7 +7587,7 @@
       </c>
     </row>
     <row r="237" spans="1:16">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="14" t="s">
         <v>566</v>
       </c>
       <c r="E237" t="s">
@@ -7603,33 +7606,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:16" s="16" customFormat="1">
-      <c r="A238" s="15" t="s">
+    <row r="238" spans="1:16" s="11" customFormat="1">
+      <c r="A238" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C238" s="17"/>
-      <c r="E238" s="16" t="s">
+      <c r="C238" s="12"/>
+      <c r="E238" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="H238" s="16" t="s">
+      <c r="H238" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="M238" s="16" t="s">
+      <c r="M238" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="N238" s="16" t="s">
+      <c r="N238" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="O238" s="16" t="s">
+      <c r="O238" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:16" s="4" customFormat="1">
-      <c r="A239" s="1" t="s">
+    <row r="239" spans="1:16" s="2" customFormat="1">
+      <c r="A239" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B239"/>
-      <c r="C239" s="10"/>
+      <c r="C239" s="6"/>
       <c r="D239"/>
       <c r="E239" t="s">
         <v>317</v>
@@ -7655,7 +7658,7 @@
       <c r="P239"/>
     </row>
     <row r="240" spans="1:16">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="14" t="s">
         <v>567</v>
       </c>
       <c r="E240" t="s">
@@ -7675,7 +7678,7 @@
       </c>
     </row>
     <row r="241" spans="1:16">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="14" t="s">
         <v>567</v>
       </c>
       <c r="E241" t="s">
@@ -7694,26 +7697,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="16" customFormat="1">
-      <c r="A242" s="15" t="s">
+    <row r="242" spans="1:16" s="11" customFormat="1">
+      <c r="A242" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="C242" s="17"/>
-      <c r="E242" s="16" t="s">
+      <c r="C242" s="12"/>
+      <c r="E242" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="H242" s="16" t="s">
+      <c r="H242" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="M242" s="16" t="s">
+      <c r="M242" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="N242" s="16" t="s">
+      <c r="N242" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:16">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="14" t="s">
         <v>572</v>
       </c>
       <c r="E243" t="s">
@@ -7744,35 +7747,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="16" customFormat="1">
-      <c r="A244" s="15" t="s">
+    <row r="244" spans="1:16" s="11" customFormat="1">
+      <c r="A244" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="C244" s="17"/>
-      <c r="E244" s="16" t="s">
+      <c r="C244" s="12"/>
+      <c r="E244" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="F244" s="16" t="s">
+      <c r="F244" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H244" s="16" t="s">
+      <c r="H244" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="I244" s="16" t="s">
+      <c r="I244" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M244" s="16" t="s">
+      <c r="M244" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N244" s="16" t="s">
+      <c r="N244" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O244" s="16" t="s">
+      <c r="O244" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:16">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="14" t="s">
         <v>579</v>
       </c>
       <c r="E245" t="s">
@@ -7792,7 +7795,7 @@
       </c>
     </row>
     <row r="246" spans="1:16">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="14" t="s">
         <v>588</v>
       </c>
       <c r="E246" t="s">
@@ -7812,7 +7815,7 @@
       </c>
     </row>
     <row r="247" spans="1:16">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="14" t="s">
         <v>591</v>
       </c>
       <c r="E247" t="s">
@@ -7831,44 +7834,44 @@
         <v>127</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="16" customFormat="1">
-      <c r="A248" s="15" t="s">
+    <row r="248" spans="1:16" s="11" customFormat="1">
+      <c r="A248" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C248" s="17"/>
-      <c r="E248" s="16" t="s">
+      <c r="C248" s="12"/>
+      <c r="E248" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="H248" s="16" t="s">
+      <c r="H248" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="M248" s="16" t="s">
+      <c r="M248" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N248" s="16" t="s">
+      <c r="N248" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O248" s="16" t="s">
+      <c r="O248" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="16" customFormat="1">
-      <c r="A249" s="15" t="s">
+    <row r="249" spans="1:16" s="11" customFormat="1">
+      <c r="A249" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C249" s="17"/>
-      <c r="E249" s="16" t="s">
+      <c r="C249" s="12"/>
+      <c r="E249" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="H249" s="16" t="s">
+      <c r="H249" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="M249" s="16" t="s">
+      <c r="M249" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:16">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="14" t="s">
         <v>585</v>
       </c>
       <c r="E250" t="s">
@@ -7882,7 +7885,7 @@
       </c>
     </row>
     <row r="251" spans="1:16">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="14" t="s">
         <v>400</v>
       </c>
       <c r="E251" t="s">
@@ -7896,33 +7899,33 @@
       </c>
     </row>
     <row r="252" spans="1:16">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4" t="s">
+      <c r="B252" s="2"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4" t="s">
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-      <c r="M252" s="4" t="s">
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N252" s="4"/>
-      <c r="O252" s="4"/>
-      <c r="P252" s="4"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+      <c r="P252" s="2"/>
     </row>
     <row r="253" spans="1:16">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="14" t="s">
         <v>310</v>
       </c>
       <c r="E253" t="s">
@@ -7942,7 +7945,7 @@
       </c>
     </row>
     <row r="254" spans="1:16">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="14" t="s">
         <v>310</v>
       </c>
       <c r="E254" t="s">
@@ -7962,7 +7965,7 @@
       </c>
     </row>
     <row r="255" spans="1:16">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="14" t="s">
         <v>555</v>
       </c>
       <c r="E255" t="s">
@@ -7981,12 +7984,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="4" customFormat="1">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:16" s="2" customFormat="1">
+      <c r="A256" s="14" t="s">
         <v>555</v>
       </c>
       <c r="B256"/>
-      <c r="C256" s="10"/>
+      <c r="C256" s="6"/>
       <c r="D256"/>
       <c r="E256" t="s">
         <v>556</v>
@@ -8012,7 +8015,7 @@
       <c r="P256"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="14" t="s">
         <v>555</v>
       </c>
       <c r="E257" t="s">
@@ -8032,7 +8035,7 @@
       </c>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="14" t="s">
         <v>555</v>
       </c>
       <c r="E258" t="s">
@@ -8052,7 +8055,7 @@
       </c>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="14" t="s">
         <v>597</v>
       </c>
       <c r="E259" t="s">
@@ -8072,7 +8075,7 @@
       </c>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="14" t="s">
         <v>600</v>
       </c>
       <c r="E260" t="s">
@@ -8098,7 +8101,7 @@
       </c>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="14" t="s">
         <v>504</v>
       </c>
       <c r="E261" t="s">
@@ -8117,59 +8120,59 @@
         <v>127</v>
       </c>
     </row>
-    <row r="262" spans="1:15" s="16" customFormat="1">
-      <c r="A262" s="15" t="s">
+    <row r="262" spans="1:15" s="11" customFormat="1">
+      <c r="A262" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="C262" s="17"/>
-      <c r="E262" s="16" t="s">
+      <c r="C262" s="12"/>
+      <c r="E262" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="F262" s="16" t="s">
+      <c r="F262" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="G262" s="16" t="s">
+      <c r="G262" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H262" s="16" t="s">
+      <c r="H262" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="I262" s="16" t="s">
+      <c r="I262" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M262" s="16" t="s">
+      <c r="M262" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N262" s="16" t="s">
+      <c r="N262" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O262" s="16" t="s">
+      <c r="O262" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="263" spans="1:15" s="16" customFormat="1">
-      <c r="A263" s="15" t="s">
+    <row r="263" spans="1:15" s="11" customFormat="1">
+      <c r="A263" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C263" s="17"/>
-      <c r="E263" s="16" t="s">
+      <c r="C263" s="12"/>
+      <c r="E263" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H263" s="16" t="s">
+      <c r="H263" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M263" s="16" t="s">
+      <c r="M263" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N263" s="16" t="s">
+      <c r="N263" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O263" s="16" t="s">
+      <c r="O263" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="14" t="s">
         <v>607</v>
       </c>
       <c r="E264" t="s">
@@ -8189,7 +8192,7 @@
       </c>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="14" t="s">
         <v>610</v>
       </c>
       <c r="E265" t="s">
@@ -8209,7 +8212,7 @@
       </c>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="14" t="s">
         <v>610</v>
       </c>
       <c r="E266" t="s">
@@ -8229,7 +8232,7 @@
       </c>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="14" t="s">
         <v>612</v>
       </c>
       <c r="E267" t="s">
@@ -8252,7 +8255,7 @@
       </c>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="14" t="s">
         <v>612</v>
       </c>
       <c r="E268" t="s">
@@ -8271,29 +8274,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:15" s="16" customFormat="1">
-      <c r="A269" s="15" t="s">
+    <row r="269" spans="1:15" s="11" customFormat="1">
+      <c r="A269" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C269" s="17"/>
-      <c r="E269" s="16" t="s">
+      <c r="C269" s="12"/>
+      <c r="E269" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H269" s="16" t="s">
+      <c r="H269" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="M269" s="16" t="s">
+      <c r="M269" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="N269" s="16" t="s">
+      <c r="N269" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="O269" s="16" t="s">
+      <c r="O269" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:15">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="14" t="s">
         <v>656</v>
       </c>
       <c r="E270" t="s">
@@ -8313,7 +8316,7 @@
       </c>
     </row>
     <row r="271" spans="1:15">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="14" t="s">
         <v>656</v>
       </c>
       <c r="E271" t="s">
@@ -8333,7 +8336,7 @@
       </c>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="14" t="s">
         <v>656</v>
       </c>
       <c r="E272" t="s">
@@ -8353,7 +8356,7 @@
       </c>
     </row>
     <row r="273" spans="1:16">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="14" t="s">
         <v>657</v>
       </c>
       <c r="E273" t="s">
@@ -8373,7 +8376,7 @@
       </c>
     </row>
     <row r="274" spans="1:16">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="14" t="s">
         <v>657</v>
       </c>
       <c r="E274" t="s">
@@ -8392,29 +8395,29 @@
         <v>158</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="16" customFormat="1">
-      <c r="A275" s="15" t="s">
+    <row r="275" spans="1:16" s="11" customFormat="1">
+      <c r="A275" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="C275" s="17"/>
-      <c r="E275" s="16" t="s">
+      <c r="C275" s="12"/>
+      <c r="E275" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="H275" s="16" t="s">
+      <c r="H275" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="M275" s="16" t="s">
+      <c r="M275" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N275" s="16" t="s">
+      <c r="N275" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O275" s="16" t="s">
+      <c r="O275" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="276" spans="1:16">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E276" t="s">
@@ -8434,7 +8437,7 @@
       </c>
     </row>
     <row r="277" spans="1:16">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E277" t="s">
@@ -8454,7 +8457,7 @@
       </c>
     </row>
     <row r="278" spans="1:16">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E278" t="s">
@@ -8473,12 +8476,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="4" customFormat="1">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="1:16" s="2" customFormat="1">
+      <c r="A279" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B279"/>
-      <c r="C279" s="10"/>
+      <c r="C279" s="6"/>
       <c r="D279"/>
       <c r="E279" t="s">
         <v>160</v>
@@ -8504,7 +8507,7 @@
       <c r="P279"/>
     </row>
     <row r="280" spans="1:16">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="14" t="s">
         <v>613</v>
       </c>
       <c r="E280" t="s">
@@ -8524,7 +8527,7 @@
       </c>
     </row>
     <row r="281" spans="1:16">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="14" t="s">
         <v>616</v>
       </c>
       <c r="E281" t="s">
@@ -8543,29 +8546,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="16" customFormat="1">
-      <c r="A282" s="15" t="s">
+    <row r="282" spans="1:16" s="11" customFormat="1">
+      <c r="A282" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="C282" s="17"/>
-      <c r="E282" s="16" t="s">
+      <c r="C282" s="12"/>
+      <c r="E282" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="H282" s="16" t="s">
+      <c r="H282" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="M282" s="16" t="s">
+      <c r="M282" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="N282" s="16" t="s">
+      <c r="N282" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="O282" s="16" t="s">
+      <c r="O282" s="11" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="283" spans="1:16">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="14" t="s">
         <v>625</v>
       </c>
       <c r="E283" t="s">
@@ -8585,7 +8588,7 @@
       </c>
     </row>
     <row r="284" spans="1:16">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="14" t="s">
         <v>628</v>
       </c>
       <c r="E284" t="s">
@@ -8611,7 +8614,7 @@
       </c>
     </row>
     <row r="285" spans="1:16">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="14" t="s">
         <v>511</v>
       </c>
       <c r="E285" t="s">
@@ -8631,7 +8634,7 @@
       </c>
     </row>
     <row r="286" spans="1:16">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="14" t="s">
         <v>165</v>
       </c>
       <c r="E286" t="s">
@@ -8651,53 +8654,53 @@
       </c>
     </row>
     <row r="287" spans="1:16">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4" t="s">
+      <c r="B287" s="2"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F287" s="4"/>
-      <c r="G287" s="4"/>
-      <c r="H287" s="4" t="s">
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I287" s="4"/>
-      <c r="J287" s="4"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4" t="s">
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N287" s="4" t="s">
+      <c r="N287" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O287" s="4" t="s">
+      <c r="O287" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P287" s="4"/>
-    </row>
-    <row r="288" spans="1:16" s="16" customFormat="1">
-      <c r="A288" s="15" t="s">
+      <c r="P287" s="2"/>
+    </row>
+    <row r="288" spans="1:16" s="11" customFormat="1">
+      <c r="A288" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="C288" s="17"/>
-      <c r="E288" s="16" t="s">
+      <c r="C288" s="12"/>
+      <c r="E288" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="H288" s="16" t="s">
+      <c r="H288" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="M288" s="16" t="s">
+      <c r="M288" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N288" s="16" t="s">
+      <c r="N288" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O288" s="16" t="s">
+      <c r="O288" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8732,10 +8735,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="4" customFormat="1">
-      <c r="A291" s="1"/>
+    <row r="291" spans="1:16" s="2" customFormat="1">
+      <c r="A291" s="14"/>
       <c r="B291"/>
-      <c r="C291" s="10"/>
+      <c r="C291" s="6"/>
       <c r="D291"/>
       <c r="E291" t="s">
         <v>306</v>
@@ -8830,10 +8833,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="4" customFormat="1">
-      <c r="A298" s="1"/>
+    <row r="298" spans="1:16" s="2" customFormat="1">
+      <c r="A298" s="14"/>
       <c r="B298"/>
-      <c r="C298" s="10"/>
+      <c r="C298" s="6"/>
       <c r="D298"/>
       <c r="E298"/>
       <c r="F298"/>
@@ -8848,10 +8851,10 @@
       <c r="O298"/>
       <c r="P298"/>
     </row>
-    <row r="307" spans="1:16" s="4" customFormat="1">
-      <c r="A307" s="1"/>
+    <row r="307" spans="1:16" s="2" customFormat="1">
+      <c r="A307" s="14"/>
       <c r="B307"/>
-      <c r="C307" s="10"/>
+      <c r="C307" s="6"/>
       <c r="D307"/>
       <c r="E307"/>
       <c r="F307"/>
@@ -8866,10 +8869,10 @@
       <c r="O307"/>
       <c r="P307"/>
     </row>
-    <row r="335" spans="1:16" s="4" customFormat="1">
-      <c r="A335" s="1"/>
+    <row r="335" spans="1:16" s="2" customFormat="1">
+      <c r="A335" s="14"/>
       <c r="B335"/>
-      <c r="C335" s="10"/>
+      <c r="C335" s="6"/>
       <c r="D335"/>
       <c r="E335"/>
       <c r="F335"/>
